--- a/reference-files/qom-template.xlsx
+++ b/reference-files/qom-template.xlsx
@@ -17,12 +17,12 @@
     <sheet name="Figure A1-1 - HB" sheetId="15" r:id="rId3"/>
     <sheet name="Table 2 - HSCP" sheetId="5" r:id="rId4"/>
     <sheet name="Figure A1-2 - HSCP" sheetId="16" r:id="rId5"/>
-    <sheet name="Table 3 - LA" sheetId="12" r:id="rId6"/>
-    <sheet name="Table 4 - Age Gender" sheetId="11" r:id="rId7"/>
-    <sheet name="Table 5 - Deprivation" sheetId="8" r:id="rId8"/>
-    <sheet name="Figure A1-3 - Deprivation" sheetId="17" r:id="rId9"/>
-    <sheet name="Table 6 - Urban Rural" sheetId="9" r:id="rId10"/>
-    <sheet name="Figure A1-4 - Urban Rural" sheetId="19" r:id="rId11"/>
+    <sheet name="Table 3 - Age Gender" sheetId="11" r:id="rId6"/>
+    <sheet name="Table 4 - Deprivation" sheetId="8" r:id="rId7"/>
+    <sheet name="Figure A1-3 - Deprivation" sheetId="17" r:id="rId8"/>
+    <sheet name="Table 5 - Urban Rural" sheetId="9" r:id="rId9"/>
+    <sheet name="Figure A1-4 - Urban Rural" sheetId="19" r:id="rId10"/>
+    <sheet name="Table 6 - LA" sheetId="12" r:id="rId11"/>
     <sheet name="External Causes of Deaths" sheetId="20" r:id="rId12"/>
     <sheet name="data" sheetId="13" r:id="rId13"/>
     <sheet name="calculation" sheetId="14" r:id="rId14"/>
@@ -52,10 +52,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Notes!$A$2:$P$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">OFFSET('Table 1 - HB'!$A$2, 0, 0, 29, calculation!$B$6+2)</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">OFFSET('Table 2 - HSCP'!$A$2, 0, 0, 46, calculation!$B$6+2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">OFFSET('Table 3 - LA'!$A$2, 0, 0, 47, calculation!$B$6+2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">OFFSET('Table 4 - Age Gender'!$A$2, 0, 0, 34, calculation!$B$6+3)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">OFFSET('Table 5 - Deprivation'!$A$2, 0, 0, 30, calculation!$B$6+2)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">OFFSET('Table 6 - Urban Rural'!$A$2, 0, 0, 28, calculation!$B$6+2)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">OFFSET('Table 3 - Age Gender'!$A$2, 0, 0, 34, calculation!$B$6+3)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">OFFSET('Table 4 - Deprivation'!$A$2, 0, 0, 30, calculation!$B$6+2)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">OFFSET('Table 5 - Urban Rural'!$A$2, 0, 0, 28, calculation!$B$6+2)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">OFFSET('Table 6 - LA'!$A$2, 0, 0, 47, calculation!$B$6+2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -791,16 +791,16 @@
     <t>Table 2: Percentage of time in the last six months of life spent at home or in a community setting; by Health and Social Care Partnership</t>
   </si>
   <si>
-    <t>Table 3: Percentage of time in the last six months of life spent at home or in a community setting; by Local Authority</t>
+    <t>Table 6: Percentage of time in the last six months of life spent at home or in a community setting; by Local Authority</t>
   </si>
   <si>
-    <t>Table 4: Percentage of time in the last six months of life spent at home or in a community setting; by Age and Gender</t>
+    <t>Table 3: Percentage of time in the last six months of life spent at home or in a community setting; by Age and Gender</t>
   </si>
   <si>
-    <t>Table 5: Percentage of time in the last six months of life spent at home or in a community setting; by Deprivation Category</t>
+    <t>Table 4: Percentage of time in the last six months of life spent at home or in a community setting; by Deprivation Category</t>
   </si>
   <si>
-    <t>Table 6: Percentage of time in the last six months of life spent at home or in a community setting; by Urban/Rural Classification</t>
+    <t>Table 5: Percentage of time in the last six months of life spent at home or in a community setting; by Urban/Rural Classification</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1529,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1823,7 +1822,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2117,7 +2115,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2411,7 +2408,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3688,34 +3684,34 @@
       <c r="O7" s="47"/>
       <c r="P7" s="45"/>
     </row>
-    <row r="8" spans="2:16" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="48" t="s">
-        <v>217</v>
-      </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
+        <v>218</v>
+      </c>
       <c r="P8" s="45"/>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="46" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
       <c r="P9" s="45"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="46" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -3732,23 +3728,23 @@
       <c r="O10" s="46"/>
       <c r="P10" s="45"/>
     </row>
-    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="46" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
+    <row r="11" spans="2:16" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="45"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4209,14 +4205,14 @@
   <hyperlinks>
     <hyperlink ref="C38" location="'External Causes of Deaths'!A1" display="For full details of the external causes of death which have been omitted, please click here. "/>
     <hyperlink ref="C38:K38" location="'External Causes of Deaths'!A1" display="For full details of the external causes of death which have been omitted, please click here. "/>
-    <hyperlink ref="B9" location="'Table 4 - Age Gender'!A1" display="Table 4: Percentage of time in the last six months of life spent at home or in a community setting (by Age and Gender)"/>
-    <hyperlink ref="B11" location="'Table 6 - Urban Rural'!A1" display="Table 6: Percentage of time in the last six months of life spent at home or in a community setting (by Urban/Rural Classification)"/>
-    <hyperlink ref="B10:O10" location="'Table 5 - Urban Rural'!A1" display="Table 5: Percentage of time in the last six months of life spent at home or in a community setting (by Urban/Rural Classification)"/>
-    <hyperlink ref="B6" location="'Table 1 - HB'!A1" display="Table 1: Percentage of time in the last six months of life spent at home or in a community setting (by Health Board of Residence)"/>
+    <hyperlink ref="B8" location="'Table 3 - Age Gender'!A1" display="Table 3: Percentage of time in the last six months of life spent at home or in a community setting; by Age and Gender"/>
+    <hyperlink ref="B10" location="'Table 5 - Urban Rural'!A1" display="Table 5: Percentage of time in the last six months of life spent at home or in a community setting; by Urban/Rural Classification"/>
+    <hyperlink ref="B9:O9" location="'Table 5 - Urban Rural'!A1" display="Table 5: Percentage of time in the last six months of life spent at home or in a community setting (by Urban/Rural Classification)"/>
+    <hyperlink ref="B6" location="'Table 1 - HB'!A1" display="Table 1: Percentage of time in the last six months of life spent at home or in a community setting; by Health Board of Residence"/>
     <hyperlink ref="B7" location="'Table 2 - HSCP'!A1" display="Table 2: Percentage of time in the last six months of life spent at home or in a community setting (by Health and Social Care Partnership)"/>
-    <hyperlink ref="B10" location="'Table 5 - Deprivation'!A1" display="Table 5: Percentage of time in the last six months of life spent at home or in a community setting (by Deprivation Category)"/>
+    <hyperlink ref="B9" location="'Table 4 - Deprivation'!A1" display="Table 4: Percentage of time in the last six months of life spent at home or in a community setting; by Deprivation Category"/>
     <hyperlink ref="C16" r:id="rId1"/>
-    <hyperlink ref="B8" location="'Table 3 - CA'!A1" display="Table 3: Percentage of time in the last six months of life spent at home or in a community setting (by Council Area)"/>
+    <hyperlink ref="B11" location="'Table 6 - LA'!A1" display="Table 6: Percentage of time in the last six months of life spent at home or in a community setting; by Local Authority"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId2"/>
@@ -4226,1070 +4222,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:AC51"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" style="15" customWidth="1"/>
-    <col min="3" max="12" width="11.28515625" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="str">
-        <f>Notes!B1:O1</f>
-        <v/>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-    </row>
-    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-    </row>
-    <row r="3" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L3" s="86"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-    </row>
-    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L4" s="87"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="94"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-    </row>
-    <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L5" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-    </row>
-    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-    </row>
-    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="5" t="e">
-        <f ca="1">calculation!B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="5" t="e">
-        <f ca="1">calculation!C$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="5" t="e">
-        <f ca="1">calculation!D$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="5" t="e">
-        <f ca="1">calculation!E$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="5" t="e">
-        <f ca="1">calculation!F$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="5" t="e">
-        <f ca="1">calculation!G$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="5" t="e">
-        <f ca="1">calculation!H$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="5" t="e">
-        <f ca="1">calculation!I$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="5" t="e">
-        <f ca="1">calculation!J$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="5" t="e">
-        <f ca="1">calculation!K$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-    </row>
-    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-    </row>
-    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-    </row>
-    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="88"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="88"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-    </row>
-    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="88"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-    </row>
-    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" s="88"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="88"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-    </row>
-    <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="88"/>
-      <c r="N13" s="88"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="88"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-    </row>
-    <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-    </row>
-    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="93"/>
-      <c r="R15" s="93"/>
-      <c r="S15" s="93"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-    </row>
-    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="5" t="e">
-        <f ca="1">calculation!B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="5" t="e">
-        <f ca="1">calculation!C$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="5" t="e">
-        <f ca="1">calculation!D$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="5" t="e">
-        <f ca="1">calculation!E$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="5" t="e">
-        <f ca="1">calculation!F$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="5" t="e">
-        <f ca="1">calculation!G$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="5" t="e">
-        <f ca="1">calculation!H$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="5" t="e">
-        <f ca="1">calculation!I$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="5" t="e">
-        <f ca="1">calculation!J$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="5" t="e">
-        <f ca="1">calculation!K$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-    </row>
-    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="88"/>
-      <c r="N17" s="88"/>
-      <c r="O17" s="88"/>
-      <c r="P17" s="88"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="92"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-    </row>
-    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="10" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-    </row>
-    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-      <c r="AA19" s="8"/>
-      <c r="AB19" s="8"/>
-      <c r="AC19" s="8"/>
-    </row>
-    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="86"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-    </row>
-    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="L21" s="86"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-    </row>
-    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-    </row>
-    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="86"/>
-      <c r="M23" s="89"/>
-      <c r="N23" s="89"/>
-    </row>
-    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="58" t="e">
-        <f ca="1" xml:space="preserve"> "1. " &amp; calculation!$E$14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="99"/>
-    </row>
-    <row r="25" spans="2:29" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="82"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="99"/>
-    </row>
-    <row r="28" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="82"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="99"/>
-    </row>
-    <row r="29" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="82"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="99"/>
-    </row>
-    <row r="30" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="82"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="100"/>
-    </row>
-    <row r="31" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="82"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-    </row>
-    <row r="32" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="82"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="82"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-    </row>
-    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="82"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-    </row>
-    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="82"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="89"/>
-    </row>
-    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="82"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-    </row>
-    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="82"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-    </row>
-    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="82"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-    </row>
-    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="82"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-    </row>
-    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="82"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-    </row>
-    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="82"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-    </row>
-    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="82"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-    </row>
-    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="82"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-    </row>
-    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="82"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-    </row>
-    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="82"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-    </row>
-    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="82"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-    </row>
-    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="82"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-    </row>
-    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="82"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="89"/>
-    </row>
-    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="82"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-    </row>
-    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="82"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B20" location="'External Causes of Deaths'!A1" display="External causes of death excluded from analysis"/>
-    <hyperlink ref="D26" r:id="rId1"/>
-    <hyperlink ref="D26:J26" location="'Table 5 - Urban Rural'!A1" display="http://www.gov.scot/Topics/Statistics/About/Methodology/UrbanRuralClassification"/>
-    <hyperlink ref="J26" r:id="rId2" display="http://www.gov.scot/Topics/Statistics/About/Methodology/UrbanRuralClassification"/>
-  </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId3"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A2:W39"/>
@@ -5499,6 +4431,2218 @@
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:L188"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="15" customWidth="1"/>
+    <col min="3" max="12" width="11.5703125" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="112" t="str">
+        <f>Notes!B1:O1</f>
+        <v/>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="82"/>
+      <c r="L5" s="67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f ca="1">calculation!B$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="5" t="e">
+        <f ca="1">calculation!C$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="5" t="e">
+        <f ca="1">calculation!D$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="5" t="e">
+        <f ca="1">calculation!E$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f ca="1">calculation!F$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="5" t="e">
+        <f ca="1">calculation!G$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="5" t="e">
+        <f ca="1">calculation!H$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f ca="1">calculation!I$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="5" t="e">
+        <f ca="1">calculation!J$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="5" t="e">
+        <f ca="1">calculation!K$10</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L30" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L33" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L34" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L35" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L36" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L37" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L38" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L39" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L40" s="26" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="84"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="82"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="82"/>
+    </row>
+    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="82"/>
+      <c r="K44" s="82"/>
+    </row>
+    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+    </row>
+    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="58" t="e">
+        <f ca="1" xml:space="preserve"> "1. " &amp; calculation!$E$14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+    </row>
+    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+    </row>
+    <row r="48" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
+    </row>
+    <row r="49" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="82"/>
+      <c r="K49" s="82"/>
+    </row>
+    <row r="50" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="82"/>
+      <c r="K50" s="82"/>
+    </row>
+    <row r="51" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="82"/>
+      <c r="K51" s="82"/>
+    </row>
+    <row r="52" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="82"/>
+      <c r="K52" s="82"/>
+    </row>
+    <row r="53" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J53" s="82"/>
+      <c r="K53" s="82"/>
+    </row>
+    <row r="54" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="82"/>
+      <c r="K54" s="82"/>
+    </row>
+    <row r="55" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="82"/>
+      <c r="K55" s="82"/>
+    </row>
+    <row r="56" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J56" s="82"/>
+      <c r="K56" s="82"/>
+    </row>
+    <row r="57" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J57" s="82"/>
+      <c r="K57" s="82"/>
+    </row>
+    <row r="58" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="82"/>
+      <c r="K58" s="82"/>
+    </row>
+    <row r="59" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J59" s="82"/>
+      <c r="K59" s="82"/>
+    </row>
+    <row r="60" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="82"/>
+      <c r="K60" s="82"/>
+    </row>
+    <row r="61" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+    </row>
+    <row r="62" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J62" s="82"/>
+      <c r="K62" s="82"/>
+    </row>
+    <row r="63" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J63" s="82"/>
+      <c r="K63" s="82"/>
+    </row>
+    <row r="64" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J64" s="82"/>
+      <c r="K64" s="82"/>
+    </row>
+    <row r="65" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J65" s="82"/>
+      <c r="K65" s="82"/>
+    </row>
+    <row r="66" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J66" s="82"/>
+      <c r="K66" s="82"/>
+    </row>
+    <row r="67" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="82"/>
+      <c r="K67" s="82"/>
+    </row>
+    <row r="68" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="82"/>
+      <c r="K68" s="82"/>
+    </row>
+    <row r="69" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J69" s="82"/>
+      <c r="K69" s="82"/>
+    </row>
+    <row r="70" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J70" s="82"/>
+      <c r="K70" s="82"/>
+    </row>
+    <row r="71" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J71" s="82"/>
+      <c r="K71" s="82"/>
+    </row>
+    <row r="72" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J72" s="82"/>
+      <c r="K72" s="82"/>
+    </row>
+    <row r="73" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="82"/>
+      <c r="K73" s="82"/>
+    </row>
+    <row r="74" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J74" s="82"/>
+      <c r="K74" s="82"/>
+    </row>
+    <row r="75" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J75" s="82"/>
+      <c r="K75" s="82"/>
+    </row>
+    <row r="76" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+    </row>
+    <row r="77" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J77" s="82"/>
+      <c r="K77" s="82"/>
+    </row>
+    <row r="78" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="82"/>
+      <c r="K78" s="82"/>
+    </row>
+    <row r="79" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="82"/>
+      <c r="K79" s="82"/>
+    </row>
+    <row r="80" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J80" s="82"/>
+      <c r="K80" s="82"/>
+    </row>
+    <row r="81" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J81" s="82"/>
+      <c r="K81" s="82"/>
+    </row>
+    <row r="82" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="82"/>
+      <c r="K82" s="82"/>
+    </row>
+    <row r="83" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J83" s="82"/>
+      <c r="K83" s="82"/>
+    </row>
+    <row r="84" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J84" s="82"/>
+      <c r="K84" s="82"/>
+    </row>
+    <row r="85" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J85" s="82"/>
+      <c r="K85" s="82"/>
+    </row>
+    <row r="86" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="82"/>
+      <c r="K86" s="82"/>
+    </row>
+    <row r="87" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="82"/>
+      <c r="K87" s="82"/>
+    </row>
+    <row r="88" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="82"/>
+      <c r="K88" s="82"/>
+    </row>
+    <row r="89" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J89" s="82"/>
+      <c r="K89" s="82"/>
+    </row>
+    <row r="90" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="82"/>
+      <c r="K90" s="82"/>
+    </row>
+    <row r="91" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="82"/>
+      <c r="K91" s="82"/>
+    </row>
+    <row r="92" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="82"/>
+      <c r="K92" s="82"/>
+    </row>
+    <row r="93" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="82"/>
+      <c r="K93" s="82"/>
+    </row>
+    <row r="94" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="82"/>
+      <c r="K94" s="82"/>
+    </row>
+    <row r="95" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J95" s="82"/>
+      <c r="K95" s="82"/>
+    </row>
+    <row r="96" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J96" s="82"/>
+      <c r="K96" s="82"/>
+    </row>
+    <row r="97" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="82"/>
+      <c r="K97" s="82"/>
+    </row>
+    <row r="98" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="82"/>
+      <c r="K98" s="82"/>
+    </row>
+    <row r="99" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="82"/>
+      <c r="K99" s="82"/>
+    </row>
+    <row r="100" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="82"/>
+      <c r="K100" s="82"/>
+    </row>
+    <row r="101" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J101" s="82"/>
+      <c r="K101" s="82"/>
+    </row>
+    <row r="102" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="82"/>
+      <c r="K102" s="82"/>
+    </row>
+    <row r="103" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="82"/>
+      <c r="K103" s="82"/>
+    </row>
+    <row r="104" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J104" s="82"/>
+      <c r="K104" s="82"/>
+    </row>
+    <row r="105" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="82"/>
+      <c r="K105" s="82"/>
+    </row>
+    <row r="106" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="82"/>
+      <c r="K106" s="82"/>
+    </row>
+    <row r="107" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J107" s="82"/>
+      <c r="K107" s="82"/>
+    </row>
+    <row r="108" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J108" s="82"/>
+      <c r="K108" s="82"/>
+    </row>
+    <row r="109" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="82"/>
+      <c r="K109" s="82"/>
+    </row>
+    <row r="110" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="82"/>
+      <c r="K110" s="82"/>
+    </row>
+    <row r="111" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J111" s="82"/>
+      <c r="K111" s="82"/>
+    </row>
+    <row r="112" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="82"/>
+      <c r="K112" s="82"/>
+    </row>
+    <row r="113" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="82"/>
+      <c r="K113" s="82"/>
+    </row>
+    <row r="114" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="82"/>
+      <c r="K114" s="82"/>
+    </row>
+    <row r="115" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="82"/>
+      <c r="K115" s="82"/>
+    </row>
+    <row r="116" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J116" s="82"/>
+      <c r="K116" s="82"/>
+    </row>
+    <row r="117" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="82"/>
+      <c r="K117" s="82"/>
+    </row>
+    <row r="118" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="82"/>
+      <c r="K118" s="82"/>
+    </row>
+    <row r="119" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J119" s="82"/>
+      <c r="K119" s="82"/>
+    </row>
+    <row r="120" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="82"/>
+      <c r="K120" s="82"/>
+    </row>
+    <row r="121" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="82"/>
+      <c r="K121" s="82"/>
+    </row>
+    <row r="122" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="82"/>
+      <c r="K122" s="82"/>
+    </row>
+    <row r="123" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J123" s="82"/>
+      <c r="K123" s="82"/>
+    </row>
+    <row r="124" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J124" s="82"/>
+      <c r="K124" s="82"/>
+    </row>
+    <row r="125" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J125" s="82"/>
+      <c r="K125" s="82"/>
+    </row>
+    <row r="126" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J126" s="82"/>
+      <c r="K126" s="82"/>
+    </row>
+    <row r="127" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="82"/>
+      <c r="K127" s="82"/>
+    </row>
+    <row r="128" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J128" s="82"/>
+      <c r="K128" s="82"/>
+    </row>
+    <row r="129" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="82"/>
+      <c r="K129" s="82"/>
+    </row>
+    <row r="130" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="82"/>
+      <c r="K130" s="82"/>
+    </row>
+    <row r="131" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="82"/>
+      <c r="K131" s="82"/>
+    </row>
+    <row r="132" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="82"/>
+      <c r="K132" s="82"/>
+    </row>
+    <row r="133" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="82"/>
+      <c r="K133" s="82"/>
+    </row>
+    <row r="134" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="82"/>
+      <c r="K134" s="82"/>
+    </row>
+    <row r="135" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J135" s="82"/>
+      <c r="K135" s="82"/>
+    </row>
+    <row r="136" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="82"/>
+      <c r="K136" s="82"/>
+    </row>
+    <row r="137" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="82"/>
+      <c r="K137" s="82"/>
+    </row>
+    <row r="138" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="82"/>
+      <c r="K138" s="82"/>
+    </row>
+    <row r="139" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="82"/>
+      <c r="K139" s="82"/>
+    </row>
+    <row r="140" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="82"/>
+      <c r="K140" s="82"/>
+    </row>
+    <row r="141" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J141" s="82"/>
+      <c r="K141" s="82"/>
+    </row>
+    <row r="142" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="82"/>
+      <c r="K142" s="82"/>
+    </row>
+    <row r="143" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J143" s="82"/>
+      <c r="K143" s="82"/>
+    </row>
+    <row r="144" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="82"/>
+      <c r="K144" s="82"/>
+    </row>
+    <row r="145" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J145" s="82"/>
+      <c r="K145" s="82"/>
+    </row>
+    <row r="146" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="82"/>
+      <c r="K146" s="82"/>
+    </row>
+    <row r="147" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="82"/>
+      <c r="K147" s="82"/>
+    </row>
+    <row r="148" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="82"/>
+      <c r="K148" s="82"/>
+    </row>
+    <row r="149" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J149" s="82"/>
+      <c r="K149" s="82"/>
+    </row>
+    <row r="150" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J150" s="82"/>
+      <c r="K150" s="82"/>
+    </row>
+    <row r="151" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="82"/>
+      <c r="K151" s="82"/>
+    </row>
+    <row r="152" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="82"/>
+      <c r="K152" s="82"/>
+    </row>
+    <row r="153" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="82"/>
+      <c r="K153" s="82"/>
+    </row>
+    <row r="154" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J154" s="82"/>
+      <c r="K154" s="82"/>
+    </row>
+    <row r="155" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J155" s="82"/>
+      <c r="K155" s="82"/>
+    </row>
+    <row r="157" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="82"/>
+      <c r="K157" s="82"/>
+    </row>
+    <row r="158" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J158" s="82"/>
+      <c r="K158" s="82"/>
+    </row>
+    <row r="159" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="82"/>
+      <c r="K159" s="82"/>
+    </row>
+    <row r="160" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J160" s="82"/>
+      <c r="K160" s="82"/>
+    </row>
+    <row r="161" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="82"/>
+      <c r="K161" s="82"/>
+    </row>
+    <row r="162" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J162" s="82"/>
+      <c r="K162" s="82"/>
+    </row>
+    <row r="163" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="82"/>
+      <c r="K163" s="82"/>
+    </row>
+    <row r="164" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="82"/>
+      <c r="K164" s="82"/>
+    </row>
+    <row r="165" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J165" s="82"/>
+      <c r="K165" s="82"/>
+    </row>
+    <row r="166" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J166" s="82"/>
+      <c r="K166" s="82"/>
+    </row>
+    <row r="167" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J167" s="82"/>
+      <c r="K167" s="82"/>
+    </row>
+    <row r="168" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J168" s="82"/>
+      <c r="K168" s="82"/>
+    </row>
+    <row r="169" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J169" s="82"/>
+      <c r="K169" s="82"/>
+    </row>
+    <row r="170" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J170" s="82"/>
+      <c r="K170" s="82"/>
+    </row>
+    <row r="171" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J171" s="82"/>
+      <c r="K171" s="82"/>
+    </row>
+    <row r="172" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J172" s="82"/>
+      <c r="K172" s="82"/>
+    </row>
+    <row r="173" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J173" s="82"/>
+      <c r="K173" s="82"/>
+    </row>
+    <row r="174" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J174" s="82"/>
+      <c r="K174" s="82"/>
+    </row>
+    <row r="175" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J175" s="82"/>
+      <c r="K175" s="82"/>
+    </row>
+    <row r="176" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J176" s="82"/>
+      <c r="K176" s="82"/>
+    </row>
+    <row r="177" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J177" s="82"/>
+      <c r="K177" s="82"/>
+    </row>
+    <row r="178" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J178" s="82"/>
+      <c r="K178" s="82"/>
+    </row>
+    <row r="179" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J179" s="82"/>
+      <c r="K179" s="82"/>
+    </row>
+    <row r="180" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J180" s="82"/>
+      <c r="K180" s="82"/>
+    </row>
+    <row r="181" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J181" s="82"/>
+      <c r="K181" s="82"/>
+    </row>
+    <row r="182" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J182" s="82"/>
+      <c r="K182" s="82"/>
+    </row>
+    <row r="183" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J183" s="82"/>
+      <c r="K183" s="82"/>
+    </row>
+    <row r="184" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J184" s="82"/>
+      <c r="K184" s="82"/>
+    </row>
+    <row r="185" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J185" s="82"/>
+      <c r="K185" s="82"/>
+    </row>
+    <row r="186" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J186" s="82"/>
+      <c r="K186" s="82"/>
+    </row>
+    <row r="187" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J187" s="82"/>
+      <c r="K187" s="82"/>
+    </row>
+    <row r="188" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J188" s="82"/>
+      <c r="K188" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B42" location="'External Causes of Deaths'!A1" display="External causes of death excluded from analysis"/>
+  </hyperlinks>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
@@ -31644,2218 +32788,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:L188"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="1.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" style="15" customWidth="1"/>
-    <col min="3" max="12" width="11.5703125" style="15" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="112" t="str">
-        <f>Notes!B1:O1</f>
-        <v/>
-      </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-    </row>
-    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-    </row>
-    <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J5" s="82"/>
-      <c r="L5" s="67" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C7" s="5" t="e">
-        <f ca="1">calculation!B$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D7" s="5" t="e">
-        <f ca="1">calculation!C$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E7" s="5" t="e">
-        <f ca="1">calculation!D$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F7" s="5" t="e">
-        <f ca="1">calculation!E$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G7" s="5" t="e">
-        <f ca="1">calculation!F$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="5" t="e">
-        <f ca="1">calculation!G$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="5" t="e">
-        <f ca="1">calculation!H$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="5" t="e">
-        <f ca="1">calculation!I$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="5" t="e">
-        <f ca="1">calculation!J$10</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="5" t="e">
-        <f ca="1">calculation!K$10</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="82" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B8), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B9), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B10), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B11), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="82" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B12), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B13), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B14), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B15), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B16), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B17), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="82" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L18" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B18), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B19), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="82" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B20), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B21), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L22" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B22), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L23" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B23), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="82" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L24" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B24), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="82" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L25" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B25), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="82" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L26" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B26), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="82" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B27), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="82" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B28), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B29), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="82" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L30" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B30), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L31" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B31), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L32" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B32), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L33" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B33), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L34" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B34), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L35" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B35), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L36" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B36), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L37" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B37), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L38" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B38), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="82" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L39" s="7" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "ca", $B39), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L40" s="26" t="e">
-        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "Scotland", $B40), [0]!data_range, 5, FALSE)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="84"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="82"/>
-      <c r="K42" s="82"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-    </row>
-    <row r="44" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J44" s="82"/>
-      <c r="K44" s="82"/>
-    </row>
-    <row r="45" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-    </row>
-    <row r="46" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="58" t="e">
-        <f ca="1" xml:space="preserve"> "1. " &amp; calculation!$E$14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-    </row>
-    <row r="47" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-    </row>
-    <row r="48" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
-    </row>
-    <row r="49" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J49" s="82"/>
-      <c r="K49" s="82"/>
-    </row>
-    <row r="50" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J50" s="82"/>
-      <c r="K50" s="82"/>
-    </row>
-    <row r="51" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J51" s="82"/>
-      <c r="K51" s="82"/>
-    </row>
-    <row r="52" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J52" s="82"/>
-      <c r="K52" s="82"/>
-    </row>
-    <row r="53" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J53" s="82"/>
-      <c r="K53" s="82"/>
-    </row>
-    <row r="54" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J54" s="82"/>
-      <c r="K54" s="82"/>
-    </row>
-    <row r="55" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J55" s="82"/>
-      <c r="K55" s="82"/>
-    </row>
-    <row r="56" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J56" s="82"/>
-      <c r="K56" s="82"/>
-    </row>
-    <row r="57" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J57" s="82"/>
-      <c r="K57" s="82"/>
-    </row>
-    <row r="58" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J58" s="82"/>
-      <c r="K58" s="82"/>
-    </row>
-    <row r="59" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J59" s="82"/>
-      <c r="K59" s="82"/>
-    </row>
-    <row r="60" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J60" s="82"/>
-      <c r="K60" s="82"/>
-    </row>
-    <row r="61" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J61" s="82"/>
-      <c r="K61" s="82"/>
-    </row>
-    <row r="62" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J62" s="82"/>
-      <c r="K62" s="82"/>
-    </row>
-    <row r="63" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J63" s="82"/>
-      <c r="K63" s="82"/>
-    </row>
-    <row r="64" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J64" s="82"/>
-      <c r="K64" s="82"/>
-    </row>
-    <row r="65" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J65" s="82"/>
-      <c r="K65" s="82"/>
-    </row>
-    <row r="66" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J66" s="82"/>
-      <c r="K66" s="82"/>
-    </row>
-    <row r="67" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J67" s="82"/>
-      <c r="K67" s="82"/>
-    </row>
-    <row r="68" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J68" s="82"/>
-      <c r="K68" s="82"/>
-    </row>
-    <row r="69" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J69" s="82"/>
-      <c r="K69" s="82"/>
-    </row>
-    <row r="70" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J70" s="82"/>
-      <c r="K70" s="82"/>
-    </row>
-    <row r="71" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J71" s="82"/>
-      <c r="K71" s="82"/>
-    </row>
-    <row r="72" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J72" s="82"/>
-      <c r="K72" s="82"/>
-    </row>
-    <row r="73" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-    </row>
-    <row r="74" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J74" s="82"/>
-      <c r="K74" s="82"/>
-    </row>
-    <row r="75" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J75" s="82"/>
-      <c r="K75" s="82"/>
-    </row>
-    <row r="76" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-    </row>
-    <row r="77" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J77" s="82"/>
-      <c r="K77" s="82"/>
-    </row>
-    <row r="78" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J78" s="82"/>
-      <c r="K78" s="82"/>
-    </row>
-    <row r="79" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J79" s="82"/>
-      <c r="K79" s="82"/>
-    </row>
-    <row r="80" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J80" s="82"/>
-      <c r="K80" s="82"/>
-    </row>
-    <row r="81" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J81" s="82"/>
-      <c r="K81" s="82"/>
-    </row>
-    <row r="82" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J82" s="82"/>
-      <c r="K82" s="82"/>
-    </row>
-    <row r="83" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J83" s="82"/>
-      <c r="K83" s="82"/>
-    </row>
-    <row r="84" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J84" s="82"/>
-      <c r="K84" s="82"/>
-    </row>
-    <row r="85" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J85" s="82"/>
-      <c r="K85" s="82"/>
-    </row>
-    <row r="86" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J86" s="82"/>
-      <c r="K86" s="82"/>
-    </row>
-    <row r="87" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J87" s="82"/>
-      <c r="K87" s="82"/>
-    </row>
-    <row r="88" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J88" s="82"/>
-      <c r="K88" s="82"/>
-    </row>
-    <row r="89" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J89" s="82"/>
-      <c r="K89" s="82"/>
-    </row>
-    <row r="90" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J90" s="82"/>
-      <c r="K90" s="82"/>
-    </row>
-    <row r="91" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-    </row>
-    <row r="92" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J92" s="82"/>
-      <c r="K92" s="82"/>
-    </row>
-    <row r="93" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J93" s="82"/>
-      <c r="K93" s="82"/>
-    </row>
-    <row r="94" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J94" s="82"/>
-      <c r="K94" s="82"/>
-    </row>
-    <row r="95" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J95" s="82"/>
-      <c r="K95" s="82"/>
-    </row>
-    <row r="96" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J96" s="82"/>
-      <c r="K96" s="82"/>
-    </row>
-    <row r="97" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J97" s="82"/>
-      <c r="K97" s="82"/>
-    </row>
-    <row r="98" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J98" s="82"/>
-      <c r="K98" s="82"/>
-    </row>
-    <row r="99" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J99" s="82"/>
-      <c r="K99" s="82"/>
-    </row>
-    <row r="100" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J100" s="82"/>
-      <c r="K100" s="82"/>
-    </row>
-    <row r="101" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J101" s="82"/>
-      <c r="K101" s="82"/>
-    </row>
-    <row r="102" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J102" s="82"/>
-      <c r="K102" s="82"/>
-    </row>
-    <row r="103" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J103" s="82"/>
-      <c r="K103" s="82"/>
-    </row>
-    <row r="104" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J104" s="82"/>
-      <c r="K104" s="82"/>
-    </row>
-    <row r="105" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J105" s="82"/>
-      <c r="K105" s="82"/>
-    </row>
-    <row r="106" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J106" s="82"/>
-      <c r="K106" s="82"/>
-    </row>
-    <row r="107" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J107" s="82"/>
-      <c r="K107" s="82"/>
-    </row>
-    <row r="108" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J108" s="82"/>
-      <c r="K108" s="82"/>
-    </row>
-    <row r="109" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J109" s="82"/>
-      <c r="K109" s="82"/>
-    </row>
-    <row r="110" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J110" s="82"/>
-      <c r="K110" s="82"/>
-    </row>
-    <row r="111" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J111" s="82"/>
-      <c r="K111" s="82"/>
-    </row>
-    <row r="112" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J112" s="82"/>
-      <c r="K112" s="82"/>
-    </row>
-    <row r="113" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J113" s="82"/>
-      <c r="K113" s="82"/>
-    </row>
-    <row r="114" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J114" s="82"/>
-      <c r="K114" s="82"/>
-    </row>
-    <row r="115" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J115" s="82"/>
-      <c r="K115" s="82"/>
-    </row>
-    <row r="116" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J116" s="82"/>
-      <c r="K116" s="82"/>
-    </row>
-    <row r="117" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J117" s="82"/>
-      <c r="K117" s="82"/>
-    </row>
-    <row r="118" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J118" s="82"/>
-      <c r="K118" s="82"/>
-    </row>
-    <row r="119" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J119" s="82"/>
-      <c r="K119" s="82"/>
-    </row>
-    <row r="120" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J120" s="82"/>
-      <c r="K120" s="82"/>
-    </row>
-    <row r="121" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J121" s="82"/>
-      <c r="K121" s="82"/>
-    </row>
-    <row r="122" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J122" s="82"/>
-      <c r="K122" s="82"/>
-    </row>
-    <row r="123" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J123" s="82"/>
-      <c r="K123" s="82"/>
-    </row>
-    <row r="124" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J124" s="82"/>
-      <c r="K124" s="82"/>
-    </row>
-    <row r="125" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J125" s="82"/>
-      <c r="K125" s="82"/>
-    </row>
-    <row r="126" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J126" s="82"/>
-      <c r="K126" s="82"/>
-    </row>
-    <row r="127" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J127" s="82"/>
-      <c r="K127" s="82"/>
-    </row>
-    <row r="128" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J128" s="82"/>
-      <c r="K128" s="82"/>
-    </row>
-    <row r="129" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J129" s="82"/>
-      <c r="K129" s="82"/>
-    </row>
-    <row r="130" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J130" s="82"/>
-      <c r="K130" s="82"/>
-    </row>
-    <row r="131" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J131" s="82"/>
-      <c r="K131" s="82"/>
-    </row>
-    <row r="132" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J132" s="82"/>
-      <c r="K132" s="82"/>
-    </row>
-    <row r="133" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J133" s="82"/>
-      <c r="K133" s="82"/>
-    </row>
-    <row r="134" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J134" s="82"/>
-      <c r="K134" s="82"/>
-    </row>
-    <row r="135" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J135" s="82"/>
-      <c r="K135" s="82"/>
-    </row>
-    <row r="136" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J136" s="82"/>
-      <c r="K136" s="82"/>
-    </row>
-    <row r="137" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J137" s="82"/>
-      <c r="K137" s="82"/>
-    </row>
-    <row r="138" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J138" s="82"/>
-      <c r="K138" s="82"/>
-    </row>
-    <row r="139" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J139" s="82"/>
-      <c r="K139" s="82"/>
-    </row>
-    <row r="140" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J140" s="82"/>
-      <c r="K140" s="82"/>
-    </row>
-    <row r="141" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J141" s="82"/>
-      <c r="K141" s="82"/>
-    </row>
-    <row r="142" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J142" s="82"/>
-      <c r="K142" s="82"/>
-    </row>
-    <row r="143" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J143" s="82"/>
-      <c r="K143" s="82"/>
-    </row>
-    <row r="144" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J144" s="82"/>
-      <c r="K144" s="82"/>
-    </row>
-    <row r="145" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J145" s="82"/>
-      <c r="K145" s="82"/>
-    </row>
-    <row r="146" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J146" s="82"/>
-      <c r="K146" s="82"/>
-    </row>
-    <row r="147" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J147" s="82"/>
-      <c r="K147" s="82"/>
-    </row>
-    <row r="148" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J148" s="82"/>
-      <c r="K148" s="82"/>
-    </row>
-    <row r="149" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J149" s="82"/>
-      <c r="K149" s="82"/>
-    </row>
-    <row r="150" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J150" s="82"/>
-      <c r="K150" s="82"/>
-    </row>
-    <row r="151" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J151" s="82"/>
-      <c r="K151" s="82"/>
-    </row>
-    <row r="152" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J152" s="82"/>
-      <c r="K152" s="82"/>
-    </row>
-    <row r="153" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J153" s="82"/>
-      <c r="K153" s="82"/>
-    </row>
-    <row r="154" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J154" s="82"/>
-      <c r="K154" s="82"/>
-    </row>
-    <row r="155" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J155" s="82"/>
-      <c r="K155" s="82"/>
-    </row>
-    <row r="157" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J157" s="82"/>
-      <c r="K157" s="82"/>
-    </row>
-    <row r="158" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J158" s="82"/>
-      <c r="K158" s="82"/>
-    </row>
-    <row r="159" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J159" s="82"/>
-      <c r="K159" s="82"/>
-    </row>
-    <row r="160" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J160" s="82"/>
-      <c r="K160" s="82"/>
-    </row>
-    <row r="161" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J161" s="82"/>
-      <c r="K161" s="82"/>
-    </row>
-    <row r="162" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J162" s="82"/>
-      <c r="K162" s="82"/>
-    </row>
-    <row r="163" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J163" s="82"/>
-      <c r="K163" s="82"/>
-    </row>
-    <row r="164" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J164" s="82"/>
-      <c r="K164" s="82"/>
-    </row>
-    <row r="165" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J165" s="82"/>
-      <c r="K165" s="82"/>
-    </row>
-    <row r="166" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J166" s="82"/>
-      <c r="K166" s="82"/>
-    </row>
-    <row r="167" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J167" s="82"/>
-      <c r="K167" s="82"/>
-    </row>
-    <row r="168" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J168" s="82"/>
-      <c r="K168" s="82"/>
-    </row>
-    <row r="169" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J169" s="82"/>
-      <c r="K169" s="82"/>
-    </row>
-    <row r="170" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J170" s="82"/>
-      <c r="K170" s="82"/>
-    </row>
-    <row r="171" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J171" s="82"/>
-      <c r="K171" s="82"/>
-    </row>
-    <row r="172" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J172" s="82"/>
-      <c r="K172" s="82"/>
-    </row>
-    <row r="173" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J173" s="82"/>
-      <c r="K173" s="82"/>
-    </row>
-    <row r="174" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J174" s="82"/>
-      <c r="K174" s="82"/>
-    </row>
-    <row r="175" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J175" s="82"/>
-      <c r="K175" s="82"/>
-    </row>
-    <row r="176" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J176" s="82"/>
-      <c r="K176" s="82"/>
-    </row>
-    <row r="177" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J177" s="82"/>
-      <c r="K177" s="82"/>
-    </row>
-    <row r="178" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J178" s="82"/>
-      <c r="K178" s="82"/>
-    </row>
-    <row r="179" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J179" s="82"/>
-      <c r="K179" s="82"/>
-    </row>
-    <row r="180" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J180" s="82"/>
-      <c r="K180" s="82"/>
-    </row>
-    <row r="181" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J181" s="82"/>
-      <c r="K181" s="82"/>
-    </row>
-    <row r="182" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J182" s="82"/>
-      <c r="K182" s="82"/>
-    </row>
-    <row r="183" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J183" s="82"/>
-      <c r="K183" s="82"/>
-    </row>
-    <row r="184" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J184" s="82"/>
-      <c r="K184" s="82"/>
-    </row>
-    <row r="185" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J185" s="82"/>
-      <c r="K185" s="82"/>
-    </row>
-    <row r="186" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J186" s="82"/>
-      <c r="K186" s="82"/>
-    </row>
-    <row r="187" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J187" s="82"/>
-      <c r="K187" s="82"/>
-    </row>
-    <row r="188" spans="10:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J188" s="82"/>
-      <c r="K188" s="82"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B42" location="'External Causes of Deaths'!A1" display="External causes of death excluded from analysis"/>
-  </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -34956,7 +33888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
@@ -35702,7 +34634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A2:W39"/>
@@ -35931,4 +34863,1068 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AC51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" style="15" customWidth="1"/>
+    <col min="3" max="12" width="11.28515625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="112" t="str">
+        <f>Notes!B1:O1</f>
+        <v/>
+      </c>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+    </row>
+    <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L2" s="86"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+    </row>
+    <row r="3" spans="2:29" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="86"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+    </row>
+    <row r="4" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="87"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+    </row>
+    <row r="5" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+    </row>
+    <row r="6" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+    </row>
+    <row r="7" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="5" t="e">
+        <f ca="1">calculation!B$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="5" t="e">
+        <f ca="1">calculation!C$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E7" s="5" t="e">
+        <f ca="1">calculation!D$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F7" s="5" t="e">
+        <f ca="1">calculation!E$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f ca="1">calculation!F$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H7" s="5" t="e">
+        <f ca="1">calculation!G$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I7" s="5" t="e">
+        <f ca="1">calculation!H$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J7" s="5" t="e">
+        <f ca="1">calculation!I$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K7" s="5" t="e">
+        <f ca="1">calculation!J$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L7" s="5" t="e">
+        <f ca="1">calculation!K$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+    </row>
+    <row r="8" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L8" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B8), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+    </row>
+    <row r="9" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L9" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B9), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+    </row>
+    <row r="10" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B10), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M10" s="88"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="88"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+    </row>
+    <row r="11" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B11), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+    </row>
+    <row r="12" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B12), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="92"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+    </row>
+    <row r="13" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$7, 7), "urban rural 6", $B13), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M13" s="88"/>
+      <c r="N13" s="88"/>
+      <c r="O13" s="88"/>
+      <c r="P13" s="88"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+    </row>
+    <row r="14" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+    </row>
+    <row r="15" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+    </row>
+    <row r="16" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="5" t="e">
+        <f ca="1">calculation!B$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="5" t="e">
+        <f ca="1">calculation!C$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E16" s="5" t="e">
+        <f ca="1">calculation!D$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F16" s="5" t="e">
+        <f ca="1">calculation!E$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G16" s="5" t="e">
+        <f ca="1">calculation!F$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="5" t="e">
+        <f ca="1">calculation!G$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="5" t="e">
+        <f ca="1">calculation!H$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="5" t="e">
+        <f ca="1">calculation!I$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="5" t="e">
+        <f ca="1">calculation!J$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="5" t="e">
+        <f ca="1">calculation!K$10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+    </row>
+    <row r="17" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="7" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$16, 7), "urban rural 2", $B17), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="88"/>
+      <c r="N17" s="88"/>
+      <c r="O17" s="88"/>
+      <c r="P17" s="88"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="92"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+    </row>
+    <row r="18" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(C$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(D$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(E$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(F$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(G$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(H$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(I$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(J$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(K$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="10" t="e">
+        <f ca="1">VLOOKUP(CONCATENATE(LEFT(L$16, 7), "urban rural 2", $B18), [0]!data_range, 5, FALSE)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="86"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+    </row>
+    <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="86"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+    </row>
+    <row r="22" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L22" s="86"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+    </row>
+    <row r="23" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="86"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+    </row>
+    <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="58" t="e">
+        <f ca="1" xml:space="preserve"> "1. " &amp; calculation!$E$14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="99"/>
+    </row>
+    <row r="25" spans="2:29" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="82"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="99"/>
+    </row>
+    <row r="28" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="82"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="99"/>
+    </row>
+    <row r="29" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="82"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="99"/>
+    </row>
+    <row r="30" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="82"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="82"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+    </row>
+    <row r="32" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="82"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+    </row>
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="82"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+    </row>
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="82"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+    </row>
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="82"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="82"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="82"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="82"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="82"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="82"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="82"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+    </row>
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="82"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+    </row>
+    <row r="43" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="82"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+    </row>
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="82"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+    </row>
+    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="82"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+    </row>
+    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="82"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+    </row>
+    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="82"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+    </row>
+    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="82"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+    </row>
+    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="82"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+    </row>
+    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="82"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+    </row>
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="82"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B20" location="'External Causes of Deaths'!A1" display="External causes of death excluded from analysis"/>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="D26:J26" location="'Table 5 - Urban Rural'!A1" display="http://www.gov.scot/Topics/Statistics/About/Methodology/UrbanRuralClassification"/>
+    <hyperlink ref="J26" r:id="rId2" display="http://www.gov.scot/Topics/Statistics/About/Methodology/UrbanRuralClassification"/>
+  </hyperlinks>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId3"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/reference-files/qom-template.xlsx
+++ b/reference-files/qom-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\irf\18-End-of-Life\Publication\RAP Development\end-of-life-pub\reference-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliceb02\Desktop\end-of-life-pub\reference-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1529,6 +1529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1822,6 +1823,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2115,6 +2117,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2408,6 +2411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4467,7 +4471,7 @@
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
@@ -32820,7 +32824,7 @@
     </row>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="J2" s="82"/>
       <c r="K2" s="82"/>
@@ -33920,7 +33924,7 @@
     </row>
     <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="L2" s="89"/>
     </row>
@@ -34898,7 +34902,7 @@
     </row>
     <row r="2" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="L2" s="86"/>
       <c r="M2" s="89"/>

--- a/reference-files/qom-template.xlsx
+++ b/reference-files/qom-template.xlsx
@@ -1823,7 +1823,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2117,7 +2116,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2411,7 +2409,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
